--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/46.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/46.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1056590198715469</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.495416666548531</v>
+        <v>-1.503563986948531</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1836809283633075</v>
+        <v>0.2149198455849895</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1745461463876518</v>
+        <v>0.1409553750364293</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1304880114459604</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.438047527693608</v>
+        <v>-1.406427410048959</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1890268830950042</v>
+        <v>0.1922637321265062</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1588772842019942</v>
+        <v>0.1175210027944154</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1647176162841205</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.472846551905469</v>
+        <v>-1.411762996129151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1642891103667797</v>
+        <v>0.1743119368477806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1897167033804063</v>
+        <v>0.1469277183031463</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1960641854938258</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.577496131701224</v>
+        <v>-1.495120245099631</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1683847277111429</v>
+        <v>0.1909438637820234</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1696478734326882</v>
+        <v>0.1159864423717173</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2159763774949263</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.569054219614354</v>
+        <v>-1.485024838058097</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2638269449707093</v>
+        <v>0.2988071156235639</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1980384610939568</v>
+        <v>0.1359210897705508</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2209929844321314</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.450441115845129</v>
+        <v>-1.384845366902229</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3418254308752812</v>
+        <v>0.3690663180608797</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1087881585447367</v>
+        <v>0.052792561053851</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2150440241140885</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.186651033072271</v>
+        <v>-1.110670164766381</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4441579220200704</v>
+        <v>0.4406551475735063</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04965146956859851</v>
+        <v>-0.001571498626733647</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2012180293070573</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7318307447385369</v>
+        <v>-0.5817378050803144</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4080579370047063</v>
+        <v>0.4044392776295601</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008929505664837667</v>
+        <v>-0.0138345637534301</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1789460904877761</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1455579124693547</v>
+        <v>0.0006034785065499272</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4456894328393847</v>
+        <v>0.3914979807103198</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0338411817921199</v>
+        <v>-0.05950481410764793</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1429393411433714</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4303932321872202</v>
+        <v>0.6806522247464228</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2861848072182628</v>
+        <v>0.2108785111808569</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04786203830920426</v>
+        <v>-0.03778675865000308</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.08585837475791624</v>
       </c>
       <c r="E12" t="n">
-        <v>1.119082724654583</v>
+        <v>1.410566255755187</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07036323191579361</v>
+        <v>-0.1715295547266405</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004222137881696155</v>
+        <v>0.04419206959102664</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.003388131846015049</v>
       </c>
       <c r="E13" t="n">
-        <v>1.750609841376441</v>
+        <v>2.112797817008386</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4347176457915485</v>
+        <v>-0.5557789711572403</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1188372116148377</v>
+        <v>0.1567596396123249</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1014016462399017</v>
       </c>
       <c r="E14" t="n">
-        <v>2.318993700196602</v>
+        <v>2.734452147735723</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9938788940586027</v>
+        <v>-1.102613112626539</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2444619634839585</v>
+        <v>0.3114580903006721</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2178963866331827</v>
       </c>
       <c r="E15" t="n">
-        <v>3.001161920788175</v>
+        <v>3.421285041663065</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.628309233201781</v>
+        <v>-1.716728823789271</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3292317887417873</v>
+        <v>0.4286055546836716</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3349211991550506</v>
       </c>
       <c r="E16" t="n">
-        <v>3.643745069617445</v>
+        <v>4.042570980301647</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.209930810390083</v>
+        <v>-2.254115293975743</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5353727790690959</v>
+        <v>0.626494318254579</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4453588118949032</v>
       </c>
       <c r="E17" t="n">
-        <v>4.245289095791045</v>
+        <v>4.641405738829132</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.858753447742485</v>
+        <v>-2.849155126052501</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7435454151706523</v>
+        <v>0.8257871192233605</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5507658670285653</v>
       </c>
       <c r="E18" t="n">
-        <v>4.702059910449019</v>
+        <v>5.035674322216671</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.490395229551572</v>
+        <v>-3.437450150325442</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9289814282843946</v>
+        <v>1.010684572379534</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6526252342018521</v>
       </c>
       <c r="E19" t="n">
-        <v>5.093344761885907</v>
+        <v>5.370012099906948</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.098971641128077</v>
+        <v>-3.992357506832517</v>
       </c>
       <c r="G19" t="n">
-        <v>1.187628659910913</v>
+        <v>1.265741810902714</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7501584562370425</v>
       </c>
       <c r="E20" t="n">
-        <v>5.484751597458145</v>
+        <v>5.733606552619475</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.656153391838746</v>
+        <v>-4.532791445680361</v>
       </c>
       <c r="G20" t="n">
-        <v>1.365755993555184</v>
+        <v>1.44878571512225</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8387618802435917</v>
       </c>
       <c r="E21" t="n">
-        <v>5.827209859038645</v>
+        <v>6.006527757843928</v>
       </c>
       <c r="F21" t="n">
-        <v>-5.078804938879095</v>
+        <v>-4.88675250626399</v>
       </c>
       <c r="G21" t="n">
-        <v>1.519593846168639</v>
+        <v>1.582121694107497</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9147023325733799</v>
       </c>
       <c r="E22" t="n">
-        <v>6.018066237206647</v>
+        <v>6.160257044576922</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.393756387858934</v>
+        <v>-5.17176233930159</v>
       </c>
       <c r="G22" t="n">
-        <v>1.71917940906226</v>
+        <v>1.78744600064864</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9753464282446861</v>
       </c>
       <c r="E23" t="n">
-        <v>6.255869429705301</v>
+        <v>6.298341865951329</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.640728975331649</v>
+        <v>-5.411986306966257</v>
       </c>
       <c r="G23" t="n">
-        <v>1.862265579986001</v>
+        <v>1.911711239329289</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.020004963874681</v>
       </c>
       <c r="E24" t="n">
-        <v>6.462832593104866</v>
+        <v>6.435417878526395</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.738382917445273</v>
+        <v>-5.51799600987116</v>
       </c>
       <c r="G24" t="n">
-        <v>1.958609260005801</v>
+        <v>1.995103253778344</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.049109310062335</v>
       </c>
       <c r="E25" t="n">
-        <v>6.550304976881366</v>
+        <v>6.480343415734303</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.795383816691609</v>
+        <v>-5.534878156763039</v>
       </c>
       <c r="G25" t="n">
-        <v>2.034524866799278</v>
+        <v>2.061028969807365</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.062542881856281</v>
       </c>
       <c r="E26" t="n">
-        <v>6.619717609419355</v>
+        <v>6.540813391309813</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.768725556232473</v>
+        <v>-5.522663732810313</v>
       </c>
       <c r="G26" t="n">
-        <v>2.045919404882285</v>
+        <v>2.080368944546369</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.061233543903135</v>
       </c>
       <c r="E27" t="n">
-        <v>6.587885849299874</v>
+        <v>6.459969625448211</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.7869435818866</v>
+        <v>-5.517854508274154</v>
       </c>
       <c r="G27" t="n">
-        <v>2.072639419809941</v>
+        <v>2.086519994571373</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.045306475001766</v>
       </c>
       <c r="E28" t="n">
-        <v>6.575481282576172</v>
+        <v>6.400554812643476</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.66786998800643</v>
+        <v>-5.410150445729245</v>
       </c>
       <c r="G28" t="n">
-        <v>2.026963680169632</v>
+        <v>2.055476861886927</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.015298018192378</v>
       </c>
       <c r="E29" t="n">
-        <v>6.524912759266991</v>
+        <v>6.330140690354266</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.494396349125747</v>
+        <v>-5.251250861419457</v>
       </c>
       <c r="G29" t="n">
-        <v>1.935207213559655</v>
+        <v>1.975529069499468</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9716034787563907</v>
       </c>
       <c r="E30" t="n">
-        <v>6.464173198752358</v>
+        <v>6.218383704912366</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.316265355957417</v>
+        <v>-5.063470923144973</v>
       </c>
       <c r="G30" t="n">
-        <v>1.918209334219363</v>
+        <v>1.941242988576753</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9157271751949089</v>
       </c>
       <c r="E31" t="n">
-        <v>6.412342139642309</v>
+        <v>6.096194636215367</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.155994669966299</v>
+        <v>-4.915507521529616</v>
       </c>
       <c r="G31" t="n">
-        <v>1.818864844469962</v>
+        <v>1.833573691510419</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8507163127588074</v>
       </c>
       <c r="E32" t="n">
-        <v>6.279359914649576</v>
+        <v>5.931252567761036</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.904331030088546</v>
+        <v>-4.666356144919387</v>
       </c>
       <c r="G32" t="n">
-        <v>1.804972681215672</v>
+        <v>1.78769911772949</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7803733976124181</v>
       </c>
       <c r="E33" t="n">
-        <v>6.065777892065941</v>
+        <v>5.686869551001625</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.750326669130338</v>
+        <v>-4.506864632592816</v>
       </c>
       <c r="G33" t="n">
-        <v>1.708402110704122</v>
+        <v>1.701531354280555</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7095633130487476</v>
       </c>
       <c r="E34" t="n">
-        <v>5.874536044030235</v>
+        <v>5.474658630099319</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.521002593879835</v>
+        <v>-4.297925936121263</v>
       </c>
       <c r="G34" t="n">
-        <v>1.56561236122928</v>
+        <v>1.554990592643713</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6406209006895365</v>
       </c>
       <c r="E35" t="n">
-        <v>5.695288896023454</v>
+        <v>5.243376709476455</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.376663645886054</v>
+        <v>-4.158832915868192</v>
       </c>
       <c r="G35" t="n">
-        <v>1.540452523392746</v>
+        <v>1.50993453241098</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5758812038369215</v>
       </c>
       <c r="E36" t="n">
-        <v>5.4844563958506</v>
+        <v>4.989105658705604</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.18463164561362</v>
+        <v>-3.991306003585803</v>
       </c>
       <c r="G36" t="n">
-        <v>1.485357168820741</v>
+        <v>1.463917237191693</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5153939659854868</v>
       </c>
       <c r="E37" t="n">
-        <v>5.189756143100826</v>
+        <v>4.675947986436081</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.053737484057734</v>
+        <v>-3.8630445646311</v>
       </c>
       <c r="G37" t="n">
-        <v>1.413084618229479</v>
+        <v>1.378360004340182</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4598376145616144</v>
       </c>
       <c r="E38" t="n">
-        <v>4.932446467518417</v>
+        <v>4.396466474412525</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.977172921664197</v>
+        <v>-3.778658074518608</v>
       </c>
       <c r="G38" t="n">
-        <v>1.319148905041481</v>
+        <v>1.283319114885916</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.40802803184852</v>
       </c>
       <c r="E39" t="n">
-        <v>4.65698067323057</v>
+        <v>4.125612900282248</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.966216001666757</v>
+        <v>-3.754050519854869</v>
       </c>
       <c r="G39" t="n">
-        <v>1.287673338597221</v>
+        <v>1.223299260769847</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3589531351226283</v>
       </c>
       <c r="E40" t="n">
-        <v>4.36682066999851</v>
+        <v>3.813070028054887</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.855236970048049</v>
+        <v>-3.662429455635129</v>
       </c>
       <c r="G40" t="n">
-        <v>1.188888756029075</v>
+        <v>1.131095112383136</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3119316727986973</v>
       </c>
       <c r="E41" t="n">
-        <v>4.181430400935523</v>
+        <v>3.611269233263318</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.79207358476402</v>
+        <v>-3.589128883743209</v>
       </c>
       <c r="G41" t="n">
-        <v>1.133773274074737</v>
+        <v>1.08091754822775</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.265818620760698</v>
       </c>
       <c r="E42" t="n">
-        <v>3.870452585164698</v>
+        <v>3.315463804247277</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.801424888579921</v>
+        <v>-3.546128561151456</v>
       </c>
       <c r="G42" t="n">
-        <v>1.117323103502165</v>
+        <v>1.057713726001547</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2203126831169037</v>
       </c>
       <c r="E43" t="n">
-        <v>3.538830174327305</v>
+        <v>2.997038857013358</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.707619698416746</v>
+        <v>-3.455790160114918</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064455179241643</v>
+        <v>0.9861297758543341</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1747988610420351</v>
       </c>
       <c r="E44" t="n">
-        <v>3.313752366828322</v>
+        <v>2.772807619413702</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.650479279815605</v>
+        <v>-3.409876551410677</v>
       </c>
       <c r="G44" t="n">
-        <v>1.051976812116054</v>
+        <v>0.9733019241809689</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1300787093284946</v>
       </c>
       <c r="E45" t="n">
-        <v>3.007150121992487</v>
+        <v>2.502122383390207</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.554176769441485</v>
+        <v>-3.316229025742442</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9658608919246426</v>
+        <v>0.8966348951137381</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.08643328242842351</v>
       </c>
       <c r="E46" t="n">
-        <v>2.798697532300304</v>
+        <v>2.336948545078712</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.51307482495611</v>
+        <v>-3.246855123167426</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9578294564532243</v>
+        <v>0.862304899902297</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.04498313279463709</v>
       </c>
       <c r="E47" t="n">
-        <v>2.554070547270193</v>
+        <v>2.118932399175118</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.410803325878996</v>
+        <v>-3.150574264977331</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8607404533664381</v>
+        <v>0.7807408177214559</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.006486415435569016</v>
       </c>
       <c r="E48" t="n">
-        <v>2.383608696691291</v>
+        <v>1.974431212281322</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.39647140981677</v>
+        <v>-3.119090159643596</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7614471969538845</v>
+        <v>0.6979245683912511</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.02825185326978745</v>
       </c>
       <c r="E49" t="n">
-        <v>2.147018026498013</v>
+        <v>1.777761070222557</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.325110385676909</v>
+        <v>-3.058778153523364</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6771274931554958</v>
+        <v>0.610969397348634</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.05886496012602754</v>
       </c>
       <c r="E50" t="n">
-        <v>2.008322674526181</v>
+        <v>1.6741660432769</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.253532534736464</v>
+        <v>-2.97786180710123</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6157310480720061</v>
+        <v>0.5805428944683804</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.08600543557728163</v>
       </c>
       <c r="E51" t="n">
-        <v>1.836426900436246</v>
+        <v>1.556555039179571</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.18253959772502</v>
+        <v>-2.917057594994863</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5415183398080093</v>
+        <v>0.4974570601990529</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1102698526075371</v>
       </c>
       <c r="E52" t="n">
-        <v>1.728029358081874</v>
+        <v>1.487361368164535</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.051815908998285</v>
+        <v>-2.805821481810905</v>
       </c>
       <c r="G52" t="n">
-        <v>0.446526244007883</v>
+        <v>0.413713731440191</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1330692306823782</v>
       </c>
       <c r="E53" t="n">
-        <v>1.591741972941844</v>
+        <v>1.401358893218998</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.011804502682936</v>
+        <v>-2.769132923342479</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4445403422843914</v>
+        <v>0.4111581638046167</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1555023261075199</v>
       </c>
       <c r="E54" t="n">
-        <v>1.394733934828161</v>
+        <v>1.278761787589255</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.955114815461911</v>
+        <v>-2.717250630895583</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3615697830229693</v>
+        <v>0.3447396318687834</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1794981270491526</v>
       </c>
       <c r="E55" t="n">
-        <v>1.308015413008122</v>
+        <v>1.225412635914779</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.926092349979532</v>
+        <v>-2.693860172942295</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3267707588111089</v>
+        <v>0.3128017455515481</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2061781447725935</v>
       </c>
       <c r="E56" t="n">
-        <v>1.228795255988024</v>
+        <v>1.196269406138403</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.87444548691386</v>
+        <v>-2.65910689278119</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2634945382018816</v>
+        <v>0.2720962495060595</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2361102024918604</v>
       </c>
       <c r="E57" t="n">
-        <v>1.072326205575077</v>
+        <v>1.059620947957738</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.865225925964136</v>
+        <v>-2.641475915778434</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2159841571659149</v>
+        <v>0.2249896359581</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2689475512180788</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9979055143603089</v>
+        <v>1.034909401818614</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.887578298925599</v>
+        <v>-2.670014714164152</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1824196124037925</v>
+        <v>0.2080899538467648</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3035973232452475</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8981877531567387</v>
+        <v>0.9727078614418164</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.836834728382191</v>
+        <v>-2.61314449042281</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1694392805612403</v>
+        <v>0.203143497158338</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3387789553864441</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8035140359498749</v>
+        <v>0.9312942474906233</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.841762277529638</v>
+        <v>-2.626456619113513</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1179583159196438</v>
+        <v>0.1650838370085825</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3729395084631032</v>
       </c>
       <c r="E61" t="n">
-        <v>0.831331908095677</v>
+        <v>0.995038887179593</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.83630775691748</v>
+        <v>-2.642964732150376</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1149733641276388</v>
+        <v>0.1764009151656427</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4056433991177562</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7814849209470885</v>
+        <v>0.9797884305781845</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.798766529342961</v>
+        <v>-2.621658983070213</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04804127898198363</v>
+        <v>0.1228535392712237</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4356257873538302</v>
       </c>
       <c r="E63" t="n">
-        <v>0.743565542552985</v>
+        <v>1.000741035586511</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.792170847144607</v>
+        <v>-2.625236777760017</v>
       </c>
       <c r="G63" t="n">
-        <v>0.01754768482728773</v>
+        <v>0.09230871177968093</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4622947400557464</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7248903813516362</v>
+        <v>1.037299071030112</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.866959320527454</v>
+        <v>-2.693420420134359</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04467756644971809</v>
+        <v>0.1208023760353199</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4848227534182211</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6927542708144578</v>
+        <v>1.05144130176187</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.969413795807593</v>
+        <v>-2.817000107974344</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02786883852540291</v>
+        <v>0.06597904608514402</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5021595226242325</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6621832167338149</v>
+        <v>1.062897441833228</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.039641892290394</v>
+        <v>-2.891101810675172</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.04558215481952001</v>
+        <v>0.06079533025346227</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5142387968372683</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5530287628195987</v>
+        <v>1.047785437225442</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.022390285948576</v>
+        <v>-2.916647118379411</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1020333630559365</v>
+        <v>0.01516472474323306</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5208653541596411</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5581197707084147</v>
+        <v>1.073366120328932</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.07666438232934</v>
+        <v>-2.995068889233646</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1842146849616466</v>
+        <v>-0.04031061041038655</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5227924845335603</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5051201035817154</v>
+        <v>1.045928838685421</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.10378298041925</v>
+        <v>-3.024401804340491</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1801062592830717</v>
+        <v>-0.0275907146968058</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5202870048842362</v>
       </c>
       <c r="E70" t="n">
-        <v>0.457834173354792</v>
+        <v>1.028669913295481</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.169645264697889</v>
+        <v>-3.086801568937231</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.182112288388896</v>
+        <v>-0.02399279262466901</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5146192925678569</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4166065852100071</v>
+        <v>1.003275255998399</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.183222708882978</v>
+        <v>-3.135801376265817</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2231867864438173</v>
+        <v>-0.04587186714097534</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5061684079873875</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3704764546655212</v>
+        <v>0.9808948266858055</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.232216417004796</v>
+        <v>-3.200460287049232</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2997001155005076</v>
+        <v>-0.1095847909547542</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4954056020020234</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3741634251564632</v>
+        <v>1.00890726352749</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.275332624525131</v>
+        <v>-3.254620328263444</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.380534732551958</v>
+        <v>-0.1767199796857664</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4821759263844211</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2948670280517715</v>
+        <v>0.9688598718922129</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.29854102115641</v>
+        <v>-3.293440864457443</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4322303892717699</v>
+        <v>-0.2079570671454182</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4655149663241041</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3144643893163633</v>
+        <v>0.9724523046782589</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.276339908522781</v>
+        <v>-3.288038187102809</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4069296597589069</v>
+        <v>-0.1973822624519604</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.444477042378615</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3189424269250475</v>
+        <v>0.9758410239582711</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.337922379412678</v>
+        <v>-3.343523890907933</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4485238102304175</v>
+        <v>-0.2206940406379479</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4181968088102388</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2440929614745259</v>
+        <v>0.8756792405020284</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.355324331201316</v>
+        <v>-3.366893611558211</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4591248415129755</v>
+        <v>-0.2419650242395364</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3863088253419407</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2791274150676111</v>
+        <v>0.9100318027785091</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.3396701071119</v>
+        <v>-3.344256405640707</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4316698721698384</v>
+        <v>-0.2158927450705872</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3481878194927857</v>
       </c>
       <c r="E79" t="n">
-        <v>0.333410965218865</v>
+        <v>0.917699115605909</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.308341836511075</v>
+        <v>-3.306053109171577</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.374712429771721</v>
+        <v>-0.1714935694067123</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3052153645135327</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3799704799197815</v>
+        <v>0.9600581066060616</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.25709111692495</v>
+        <v>-3.264291230513961</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3750527655093465</v>
+        <v>-0.1810827422865453</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2581582997900319</v>
       </c>
       <c r="E81" t="n">
-        <v>0.575459815548362</v>
+        <v>1.117131588409666</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.13889153937456</v>
+        <v>-3.15080694971551</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3931979056426012</v>
+        <v>-0.2029020445765303</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2076280113274712</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6736052012472757</v>
+        <v>1.198734095593142</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.990858911762393</v>
+        <v>-3.019824349661496</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3669676570183742</v>
+        <v>-0.1719613785657781</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1540335519598686</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8820388833984804</v>
+        <v>1.383835872176026</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.844860064646841</v>
+        <v>-2.875288397289125</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.310091943990941</v>
+        <v>-0.1293315827851493</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.09923697048862735</v>
       </c>
       <c r="E84" t="n">
-        <v>1.182769421879261</v>
+        <v>1.629339923139301</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.74541066854104</v>
+        <v>-2.776120174615305</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3595339438101688</v>
+        <v>-0.1698510530242298</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04627536155937532</v>
       </c>
       <c r="E85" t="n">
-        <v>1.41883312060783</v>
+        <v>1.82091905730925</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.522152864341474</v>
+        <v>-2.563895835458112</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3127389997280276</v>
+        <v>-0.1240033157530783</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.002119869357733685</v>
       </c>
       <c r="E86" t="n">
-        <v>1.724083781223991</v>
+        <v>2.036485151854346</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.302448458004642</v>
+        <v>-2.357751795527419</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3273423304914064</v>
+        <v>-0.124970040025724</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.04362193739860396</v>
       </c>
       <c r="E87" t="n">
-        <v>1.908659196262842</v>
+        <v>2.181914028097476</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.058066051165907</v>
+        <v>-2.091347592734019</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.3240755953467437</v>
+        <v>-0.1197210626816302</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.07663923187307115</v>
       </c>
       <c r="E88" t="n">
-        <v>2.114462290535232</v>
+        <v>2.325769918915273</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.746413053205922</v>
+        <v>-1.779684226122529</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2627041570110007</v>
+        <v>-0.08489825156337658</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.09928277959753376</v>
       </c>
       <c r="E89" t="n">
-        <v>2.189527057984646</v>
+        <v>2.383157355390498</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.520681410741466</v>
+        <v>-1.566101593618217</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2850839764029172</v>
+        <v>-0.1225138894604595</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1110260474892402</v>
       </c>
       <c r="E90" t="n">
-        <v>2.341026474723449</v>
+        <v>2.483220941617784</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.358516311128369</v>
+        <v>-1.358092416258029</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.2975123300330124</v>
+        <v>-0.1367738348828292</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1121572504165192</v>
       </c>
       <c r="E91" t="n">
-        <v>2.370822319623946</v>
+        <v>2.493839660599968</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.053543774340805</v>
+        <v>-1.019012505306037</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.2539865607782407</v>
+        <v>-0.1053720688404554</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1047916233234977</v>
       </c>
       <c r="E92" t="n">
-        <v>2.305624238962285</v>
+        <v>2.425312632884617</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9030549961633727</v>
+        <v>-0.8447203528771582</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.249577444206029</v>
+        <v>-0.1081246408546194</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.0905914366557575</v>
       </c>
       <c r="E93" t="n">
-        <v>2.240446895603634</v>
+        <v>2.35609273528048</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6976642082684642</v>
+        <v>-0.5958739366053041</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.2431757167828814</v>
+        <v>-0.1464935307874862</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07138052886434622</v>
       </c>
       <c r="E94" t="n">
-        <v>2.174031413271185</v>
+        <v>2.286097018575519</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4553140571246536</v>
+        <v>-0.3461724115446492</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.2090354069019088</v>
+        <v>-0.1509246045040608</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.04857673973581096</v>
       </c>
       <c r="E95" t="n">
-        <v>2.006167214854554</v>
+        <v>2.128944247083938</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2852761014160928</v>
+        <v>-0.1477450880161732</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2037809402717243</v>
+        <v>-0.174660887481065</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.02421213662339993</v>
       </c>
       <c r="E96" t="n">
-        <v>1.860518157247117</v>
+        <v>1.975651663555495</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1585162871675439</v>
+        <v>-0.0006602771356720488</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2027928687753924</v>
+        <v>-0.2009600571417645</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.0007720604250727648</v>
       </c>
       <c r="E97" t="n">
-        <v>1.7148318944784</v>
+        <v>1.817718193597676</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02127856960695559</v>
+        <v>0.1512654741561784</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1924839894969968</v>
+        <v>-0.2025812263005609</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01898327035854716</v>
       </c>
       <c r="E98" t="n">
-        <v>1.550488768128635</v>
+        <v>1.64106991759452</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1374654089240769</v>
+        <v>0.2614220277422917</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2647644690570556</v>
+        <v>-0.3021867620996094</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.03293468913989774</v>
       </c>
       <c r="E99" t="n">
-        <v>1.472029792113119</v>
+        <v>1.515597645894586</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2593818430785694</v>
+        <v>0.3449518842642917</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2402072328491485</v>
+        <v>-0.2838293695708464</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.04213194725777606</v>
       </c>
       <c r="E100" t="n">
-        <v>1.323143275553504</v>
+        <v>1.359414038358357</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3092343195132487</v>
+        <v>0.3852749600454594</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3098138201623439</v>
+        <v>-0.3595693192094203</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04759720748759478</v>
       </c>
       <c r="E101" t="n">
-        <v>1.27367992851059</v>
+        <v>1.279035641973115</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3879092074483342</v>
+        <v>0.4332763272262082</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3259620799999255</v>
+        <v>-0.3697251083979521</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.05472111018144804</v>
       </c>
       <c r="E102" t="n">
-        <v>1.168127666113248</v>
+        <v>1.133331691504771</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4085629513250537</v>
+        <v>0.4256523187668575</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3620272995367149</v>
+        <v>-0.407295002244279</v>
       </c>
     </row>
   </sheetData>
